--- a/pub/Management/WBSbyArea/1.0.1_Software_Tools_Group_WBS.xlsx
+++ b/pub/Management/WBSbyArea/1.0.1_Software_Tools_Group_WBS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="280" windowWidth="24800" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="495" yWindow="-15" windowWidth="15480" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Chander Sehgal - Personal View" guid="{526A4332-BDD3-494C-9439-B984DA5A3560}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="520" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Alain Roy - Personal View" guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" mergeInterval="0" personalView="1" xWindow="161" yWindow="86" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Alain Roy - Personal View" guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" mergeInterval="0" personalView="1" xWindow="25" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -24,7 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+  <si>
+    <t>VDT packaging and configuration scripts (including configure-osg)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.1.1.5</t>
+  </si>
+  <si>
+    <t>1.0.1.1.6</t>
+  </si>
+  <si>
+    <t>1.0.1.1.7</t>
+  </si>
+  <si>
+    <t>Continue integration of software development best practices into STG-managed software</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>Work with ET to find and divert STG-owned effort to starving projects, as needed</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,10 +72,6 @@
   </si>
   <si>
     <t>Gratia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPDG Cert Scripts</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -125,10 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Continune integration of software development best practices into STG-managed software</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WBS Number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -193,10 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.1.2.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV development</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -216,17 +222,26 @@
     <t>GUMS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>vdt-ca-manage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPDG Cert Scripts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.1.2.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -311,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -360,6 +375,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +386,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" guid="{083415DA-0A06-4B41-ADA1-9DAB26FE38E6}" diskRevisions="1" revisionId="638" version="13">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{4FB79E26-FB26-4125-B6E8-97273F82BB46}" diskRevisions="1" revisionId="681" version="2">
   <header guid="{C48660FA-862D-DD48-B384-58C955607442}" dateTime="2010-07-15T16:04:55" maxSheetId="2" userName="Suchandra Thapa" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -436,483 +452,27 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{9B21654C-F800-BC4F-BADA-9BC4307B6DE6}" dateTime="2010-08-09T11:46:06" maxSheetId="2" userName="Alain Roy" r:id="rId14" minRId="639" maxRId="681">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D5EA48C5-AA04-314E-AB99-E2F0A12A8008}" dateTime="2010-08-09T11:49:51" maxSheetId="2" userName="Alain Roy" r:id="rId15">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4FB79E26-FB26-4125-B6E8-97273F82BB46}" dateTime="2010-08-09T14:31:40" maxSheetId="2" userName="Chander Sehgal" r:id="rId16">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcc rId="603" sId="1" numFmtId="20">
-    <oc r="C5">
-      <v>38991</v>
-    </oc>
-    <nc r="C5">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="604" sId="1" numFmtId="20">
-    <oc r="C6">
-      <v>38992</v>
-    </oc>
-    <nc r="C6">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="605" sId="1" numFmtId="20">
-    <oc r="C7">
-      <v>38993</v>
-    </oc>
-    <nc r="C7">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="606" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="C8">
-      <v>38994</v>
-    </oc>
-    <nc r="C8">
-      <v>38990</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="607" sId="1" numFmtId="20">
-    <oc r="C9">
-      <v>38995</v>
-    </oc>
-    <nc r="C9">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="608" sId="1" numFmtId="20">
-    <oc r="C10">
-      <v>38996</v>
-    </oc>
-    <nc r="C10">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="609" sId="1" numFmtId="20">
-    <oc r="C11">
-      <v>38997</v>
-    </oc>
-    <nc r="C11">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="610" sId="1" numFmtId="20">
-    <oc r="C12">
-      <v>38998</v>
-    </oc>
-    <nc r="C12">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="611" sId="1" numFmtId="20">
-    <oc r="C13">
-      <v>38999</v>
-    </oc>
-    <nc r="C13">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="612" sId="1" numFmtId="20">
-    <oc r="C14">
-      <v>39000</v>
-    </oc>
-    <nc r="C14">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="613" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="C15">
-      <v>39001</v>
-    </oc>
-    <nc r="C15">
-      <v>38990</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="614" sId="1" numFmtId="20">
-    <oc r="C16">
-      <v>39002</v>
-    </oc>
-    <nc r="C16">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="615" sId="1" numFmtId="20">
-    <oc r="C17">
-      <v>39003</v>
-    </oc>
-    <nc r="C17">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="616" sId="1" numFmtId="20">
-    <oc r="C18">
-      <v>39004</v>
-    </oc>
-    <nc r="C18">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="617" sId="1" numFmtId="20">
-    <oc r="C19">
-      <v>39005</v>
-    </oc>
-    <nc r="C19">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="618" sId="1" numFmtId="20">
-    <oc r="C20">
-      <v>39006</v>
-    </oc>
-    <nc r="C20">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="619" sId="1" numFmtId="20">
-    <oc r="C21">
-      <v>39007</v>
-    </oc>
-    <nc r="C21">
-      <v>38990</v>
-    </nc>
-  </rcc>
-  <rcc rId="620" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="C22">
-      <v>39008</v>
-    </oc>
-    <nc r="C22">
-      <v>38990</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="621" sId="1" numFmtId="20">
-    <oc r="D5">
-      <v>39355</v>
-    </oc>
-    <nc r="D5">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="622" sId="1" numFmtId="20">
-    <oc r="D6">
-      <v>39356</v>
-    </oc>
-    <nc r="D6">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="623" sId="1" numFmtId="20">
-    <oc r="D7">
-      <v>39357</v>
-    </oc>
-    <nc r="D7">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="624" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="D8">
-      <v>39358</v>
-    </oc>
-    <nc r="D8">
-      <v>39354</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="625" sId="1" numFmtId="20">
-    <oc r="D9">
-      <v>39359</v>
-    </oc>
-    <nc r="D9">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="626" sId="1" numFmtId="20">
-    <oc r="D10">
-      <v>39360</v>
-    </oc>
-    <nc r="D10">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="627" sId="1" numFmtId="20">
-    <oc r="D11">
-      <v>39361</v>
-    </oc>
-    <nc r="D11">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="628" sId="1" numFmtId="20">
-    <oc r="D12">
-      <v>39362</v>
-    </oc>
-    <nc r="D12">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="629" sId="1" numFmtId="20">
-    <oc r="D13">
-      <v>39363</v>
-    </oc>
-    <nc r="D13">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="630" sId="1" numFmtId="20">
-    <oc r="D14">
-      <v>39364</v>
-    </oc>
-    <nc r="D14">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="631" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="D15">
-      <v>39365</v>
-    </oc>
-    <nc r="D15">
-      <v>39354</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="632" sId="1" numFmtId="20">
-    <oc r="D16">
-      <v>39366</v>
-    </oc>
-    <nc r="D16">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="633" sId="1" numFmtId="20">
-    <oc r="D17">
-      <v>39367</v>
-    </oc>
-    <nc r="D17">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="634" sId="1" numFmtId="20">
-    <oc r="D18">
-      <v>39368</v>
-    </oc>
-    <nc r="D18">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="635" sId="1" numFmtId="20">
-    <oc r="D19">
-      <v>39369</v>
-    </oc>
-    <nc r="D19">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="636" sId="1" numFmtId="20">
-    <oc r="D20">
-      <v>39370</v>
-    </oc>
-    <nc r="D20">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="637" sId="1" numFmtId="20">
-    <oc r="D21">
-      <v>39371</v>
-    </oc>
-    <nc r="D21">
-      <v>39354</v>
-    </nc>
-  </rcc>
-  <rcc rId="638" sId="1" odxf="1" dxf="1" numFmtId="20">
-    <oc r="D22">
-      <v>39372</v>
-    </oc>
-    <nc r="D22">
-      <v>39354</v>
-    </nc>
-    <odxf>
-      <font>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <font>
-        <b val="0"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="C22 D22 C15 D15 C8 D8" start="0" length="0">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C22 D22 C15 D15 C8 D8" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{526A4332-BDD3-494C-9439-B984DA5A3560}" action="add"/>
 </revisions>
 </file>
 
@@ -2110,6 +1670,498 @@
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="603" sId="1" numFmtId="20">
+    <oc r="C5">
+      <v>38991</v>
+    </oc>
+    <nc r="C5">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="604" sId="1" numFmtId="20">
+    <oc r="C6">
+      <v>38992</v>
+    </oc>
+    <nc r="C6">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="605" sId="1" numFmtId="20">
+    <oc r="C7">
+      <v>38993</v>
+    </oc>
+    <nc r="C7">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="606" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="C8">
+      <v>38994</v>
+    </oc>
+    <nc r="C8">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="607" sId="1" numFmtId="20">
+    <oc r="C9">
+      <v>38995</v>
+    </oc>
+    <nc r="C9">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="608" sId="1" numFmtId="20">
+    <oc r="C10">
+      <v>38996</v>
+    </oc>
+    <nc r="C10">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="609" sId="1" numFmtId="20">
+    <oc r="C11">
+      <v>38997</v>
+    </oc>
+    <nc r="C11">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="610" sId="1" numFmtId="20">
+    <oc r="C12">
+      <v>38998</v>
+    </oc>
+    <nc r="C12">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="611" sId="1" numFmtId="20">
+    <oc r="C13">
+      <v>38999</v>
+    </oc>
+    <nc r="C13">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="612" sId="1" numFmtId="20">
+    <oc r="C14">
+      <v>39000</v>
+    </oc>
+    <nc r="C14">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="613" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="C15">
+      <v>39001</v>
+    </oc>
+    <nc r="C15">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="614" sId="1" numFmtId="20">
+    <oc r="C16">
+      <v>39002</v>
+    </oc>
+    <nc r="C16">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="615" sId="1" numFmtId="20">
+    <oc r="C17">
+      <v>39003</v>
+    </oc>
+    <nc r="C17">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="616" sId="1" numFmtId="20">
+    <oc r="C18">
+      <v>39004</v>
+    </oc>
+    <nc r="C18">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="617" sId="1" numFmtId="20">
+    <oc r="C19">
+      <v>39005</v>
+    </oc>
+    <nc r="C19">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="618" sId="1" numFmtId="20">
+    <oc r="C20">
+      <v>39006</v>
+    </oc>
+    <nc r="C20">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="619" sId="1" numFmtId="20">
+    <oc r="C21">
+      <v>39007</v>
+    </oc>
+    <nc r="C21">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="620" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="C22">
+      <v>39008</v>
+    </oc>
+    <nc r="C22">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="621" sId="1" numFmtId="20">
+    <oc r="D5">
+      <v>39355</v>
+    </oc>
+    <nc r="D5">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="622" sId="1" numFmtId="20">
+    <oc r="D6">
+      <v>39356</v>
+    </oc>
+    <nc r="D6">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="623" sId="1" numFmtId="20">
+    <oc r="D7">
+      <v>39357</v>
+    </oc>
+    <nc r="D7">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="624" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="D8">
+      <v>39358</v>
+    </oc>
+    <nc r="D8">
+      <v>39354</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="625" sId="1" numFmtId="20">
+    <oc r="D9">
+      <v>39359</v>
+    </oc>
+    <nc r="D9">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="626" sId="1" numFmtId="20">
+    <oc r="D10">
+      <v>39360</v>
+    </oc>
+    <nc r="D10">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="627" sId="1" numFmtId="20">
+    <oc r="D11">
+      <v>39361</v>
+    </oc>
+    <nc r="D11">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="628" sId="1" numFmtId="20">
+    <oc r="D12">
+      <v>39362</v>
+    </oc>
+    <nc r="D12">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="629" sId="1" numFmtId="20">
+    <oc r="D13">
+      <v>39363</v>
+    </oc>
+    <nc r="D13">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="630" sId="1" numFmtId="20">
+    <oc r="D14">
+      <v>39364</v>
+    </oc>
+    <nc r="D14">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="631" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="D15">
+      <v>39365</v>
+    </oc>
+    <nc r="D15">
+      <v>39354</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="632" sId="1" numFmtId="20">
+    <oc r="D16">
+      <v>39366</v>
+    </oc>
+    <nc r="D16">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="633" sId="1" numFmtId="20">
+    <oc r="D17">
+      <v>39367</v>
+    </oc>
+    <nc r="D17">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="634" sId="1" numFmtId="20">
+    <oc r="D18">
+      <v>39368</v>
+    </oc>
+    <nc r="D18">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="635" sId="1" numFmtId="20">
+    <oc r="D19">
+      <v>39369</v>
+    </oc>
+    <nc r="D19">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="636" sId="1" numFmtId="20">
+    <oc r="D20">
+      <v>39370</v>
+    </oc>
+    <nc r="D20">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="637" sId="1" numFmtId="20">
+    <oc r="D21">
+      <v>39371</v>
+    </oc>
+    <nc r="D21">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="638" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <oc r="D22">
+      <v>39372</v>
+    </oc>
+    <nc r="D22">
+      <v>39354</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="C22 D22 C15 D15 C8 D8" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="C22 D22 C15 D15 C8 D8" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="1" sId="1">
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t># of new packages tested</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" action="delete"/>
+  <rcv guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog122.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <rcc rId="38" sId="1">
     <oc r="F23" t="inlineStr">
       <is>
@@ -2526,22 +2578,14 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcc rId="1" sId="1">
-    <nc r="G8" t="inlineStr">
-      <is>
-        <t># of new packages tested</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" action="delete"/>
-  <rcv guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" action="add"/>
+  <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="delete"/>
+  <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <rcc rId="2" sId="1">
     <oc r="E33" t="inlineStr">
@@ -3121,6 +3165,982 @@
     </nc>
   </rcc>
   <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog132.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rrc rId="639" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="640" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="641" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="642" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="643" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="644" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="645" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="646" sId="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>vdt-ca-manage</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="647" sId="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>PPDG Cert Scripts</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="648" sId="1" ref="A22:XFD22" action="insertRow"/>
+  <rrc rId="649" sId="1" ref="A22:XFD22" action="insertRow"/>
+  <rrc rId="650" sId="1" ref="A22:XFD22" action="insertRow"/>
+  <rrc rId="651" sId="1" ref="A22:XFD22" action="insertRow"/>
+  <rcc rId="652" sId="1">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>PRIMA</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="653" sId="1" ref="A19:XFD19" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A19:XFD19" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A19" t="inlineStr">
+        <is>
+          <t>1.0.1.2.4</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B19" t="inlineStr">
+        <is>
+          <t>PPDG Cert Scripts</t>
+          <phoneticPr fontId="3" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="C19">
+        <v>38990</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="D19">
+        <v>39354</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E19" t="inlineStr">
+        <is>
+          <t>Roy, Altunay</t>
+          <phoneticPr fontId="3" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="F19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="654" sId="1">
+    <oc r="A17" t="inlineStr">
+      <is>
+        <t>1.0.1.2.2</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>1.0.1.2.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="655" sId="1">
+    <oc r="A19" t="inlineStr">
+      <is>
+        <t>1.0.1.2.5</t>
+      </is>
+    </oc>
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>1.0.1.2.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="656" sId="1">
+    <oc r="A20" t="inlineStr">
+      <is>
+        <t>1.0.1.2.6</t>
+      </is>
+    </oc>
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>1.0.1.2.5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="657" sId="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>VDT packaging and configuration scripts (including configure-osg)</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="658" sId="1">
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>1.0.1.2.6</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="659" sId="1" ref="A22:XFD22" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A22:XFD22" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="660" sId="1" ref="A22:XFD22" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A22:XFD22" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="661" sId="1" ref="A22:XFD22" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A22:XFD22" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="662" sId="1" ref="A11:XFD11" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="663" sId="1" ref="A11:XFD11" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="664" sId="1" ref="A11:XFD11" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="665" sId="1" ref="A11:XFD11" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J11" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rcc rId="666" sId="1">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>1.0.1.1.5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="667" sId="1">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>1.0.1.1.6</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="668" sId="1">
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>1.0.1.1.7</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="669" sId="1" numFmtId="20">
+    <nc r="C8">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="670" sId="1" numFmtId="20">
+    <nc r="C9">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="671" sId="1" numFmtId="20">
+    <nc r="C10">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="672" sId="1" numFmtId="20">
+    <nc r="D8">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="673" sId="1" numFmtId="20">
+    <nc r="D9">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="674" sId="1" numFmtId="20">
+    <nc r="D10">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="675" sId="1">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>Roy, Altunay</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="676" sId="1">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>Roy, Altunay</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="677" sId="1">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>Roy, Altunay</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="678" sId="1" numFmtId="20">
+    <nc r="C17">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="679" sId="1" numFmtId="20">
+    <nc r="D17">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="680" sId="1">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Roy, Altunay</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="681" sId="1">
+    <oc r="B18" t="inlineStr">
+      <is>
+        <t>Continune integration of software development best practices into STG-managed software</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>Continue integration of software development best practices into STG-managed software</t>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="delete"/>
+  <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="add"/>
 </revisions>
 </file>
 
@@ -8105,10 +9125,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="2">
-  <userInfo guid="{B6405AE2-1340-014F-8CE5-1818F779D8EE}" name="Rob Gardner" id="-605177576" dateTime="2010-07-20T05:17:52"/>
-  <userInfo guid="{9DF981CA-DE70-0645-B5FF-60C6CEA4054B}" name="marco mambelli" id="-486698565" dateTime="2010-08-02T11:08:47"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8430,65 +9447,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="16" customWidth="1"/>
-    <col min="7" max="9" width="7.5703125" style="16"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="16" customWidth="1"/>
+    <col min="7" max="9" width="7.625" style="16"/>
     <col min="10" max="10" width="9" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8">
         <v>38990</v>
@@ -8497,17 +9514,17 @@
         <v>39354</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="25" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="11">
         <v>38990</v>
@@ -8516,16 +9533,16 @@
         <v>39354</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="11">
         <v>38990</v>
@@ -8534,16 +9551,16 @@
         <v>39354</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="25" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="11">
         <v>38990</v>
@@ -8552,16 +9569,16 @@
         <v>39354</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="19" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11">
         <v>38990</v>
@@ -8570,38 +9587,34 @@
         <v>39354</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:11" s="24" customFormat="1" ht="15">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8">
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11">
         <v>38990</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="14">
         <v>39354</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="11">
         <v>38990</v>
@@ -8610,20 +9623,16 @@
         <v>39354</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="C10" s="11">
         <v>38990</v>
@@ -8632,42 +9641,38 @@
         <v>39354</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" s="24" customFormat="1" ht="15.75">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>38990</v>
+      </c>
+      <c r="D11" s="8">
+        <v>39354</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11">
-        <v>38990</v>
-      </c>
-      <c r="D11" s="14">
-        <v>39354</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11">
         <v>38990</v>
@@ -8676,7 +9681,7 @@
         <v>39354</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="20"/>
@@ -8684,12 +9689,12 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11">
         <v>38990</v>
@@ -8698,7 +9703,7 @@
         <v>39354</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="20"/>
@@ -8706,12 +9711,12 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11">
         <v>38990</v>
@@ -8720,7 +9725,7 @@
         <v>39354</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="20"/>
@@ -8728,37 +9733,34 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:11" s="24" customFormat="1" ht="15">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8">
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11">
         <v>38990</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="14">
         <v>39354</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24">
-        <v>9</v>
-      </c>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="15">
-      <c r="A16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>24</v>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="11">
         <v>38990</v>
@@ -8767,23 +9769,20 @@
         <v>39354</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29">
-        <v>9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="11">
         <v>38990</v>
@@ -8792,42 +9791,45 @@
         <v>39354</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="11">
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="31.5">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
         <v>38990</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="8">
         <v>39354</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75">
+      <c r="A19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="11">
         <v>38990</v>
@@ -8836,20 +9838,23 @@
         <v>39354</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11">
         <v>38990</v>
@@ -8858,7 +9863,7 @@
         <v>39354</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="20"/>
@@ -8866,12 +9871,12 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11">
         <v>38990</v>
@@ -8880,7 +9885,7 @@
         <v>39354</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="20"/>
@@ -8888,65 +9893,95 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" s="24" customFormat="1" ht="15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11">
+        <v>38990</v>
+      </c>
+      <c r="D22" s="14">
+        <v>39354</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11">
         <v>38990</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="14">
         <v>39354</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" s="30" customFormat="1" ht="15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11">
+        <v>38990</v>
+      </c>
+      <c r="D24" s="14">
+        <v>39354</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="31.5">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>38990</v>
+      </c>
+      <c r="D25" s="8">
+        <v>39354</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:11" s="30" customFormat="1" ht="15.75">
       <c r="A26" s="9"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
@@ -8958,7 +9993,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="9"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
@@ -8970,7 +10005,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
@@ -8982,7 +10017,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="9"/>
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
@@ -8994,7 +10029,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="9"/>
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
@@ -9006,9 +10041,9 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="9"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="9"/>
@@ -9018,19 +10053,19 @@
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="9"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="9"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11"/>
@@ -9042,9 +10077,9 @@
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="9"/>
@@ -9054,19 +10089,19 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="9"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="9"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
@@ -9078,19 +10113,19 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="9"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="11"/>
@@ -9102,7 +10137,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="9"/>
       <c r="B39" s="12"/>
       <c r="C39" s="11"/>
@@ -9114,19 +10149,19 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="9"/>
       <c r="B40" s="12"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="9"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="9"/>
       <c r="B41" s="12"/>
       <c r="C41" s="11"/>
@@ -9138,7 +10173,7 @@
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="9"/>
       <c r="B42" s="12"/>
       <c r="C42" s="11"/>
@@ -9150,37 +10185,37 @@
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="20"/>
+    <row r="43" spans="1:10" ht="15.75">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20"/>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="20"/>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -9594,21 +10629,65 @@
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
     </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{526A4332-BDD3-494C-9439-B984DA5A3560}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
     <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
       <selection activeCell="D36" sqref="D36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}">
       <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
